--- a/Scenario Generation/Main Prompt/ClippEPrompts/Current/Main Knowledge.xlsx
+++ b/Scenario Generation/Main Prompt/ClippEPrompts/Current/Main Knowledge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://veteransunited-my.sharepoint.com/personal/elizabeth_nash_vu_com/Documents/Desktop/VU AI/Clipp-E/Knowledge Base/Current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://veteransunited-my.sharepoint.com/personal/elizabeth_nash_vu_com/Documents/Desktop/VU AI/Call-E/VU-RoboVet/Scenario Generation/Main Prompt/ClippEPrompts/Current/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="369" documentId="8_{DBD7230F-66FC-4324-AB51-57B2A697295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7FAB821-B3F3-4D53-AB64-8F26ECBD5253}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F6905D68-DDAA-44D3-9527-39CEE8DB0F8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6905D68-DDAA-44D3-9527-39CEE8DB0F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="WhereDoesTheCallGo" sheetId="1" r:id="rId1"/>
@@ -2571,10 +2571,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2898,8 +2894,8 @@
   <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,7 +2945,7 @@
       <c r="E2"/>
       <c r="F2" s="6">
         <f ca="1">RANDBETWEEN(DATE(2025,10,1), DATE(2026,10,1))</f>
-        <v>46049</v>
+        <v>46215</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6052,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9052CF50-D29D-4D49-BA11-D2C569BC2849}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6092,7 +6088,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -6274,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34877170-A8FD-4C27-8FD5-19CB03D0F7B0}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
